--- a/Instructions listing.xlsx
+++ b/Instructions listing.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Racailloux\Documents\GitHub\ControlPanel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Commun\Informatique\Projets\Control Panel BO\Dépôt GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F757C729-8594-47F0-85AB-93F601E9CDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2175C3DD-40AF-455B-AD8F-FE099B04C7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions FR" sheetId="2" r:id="rId1"/>
     <sheet name="Instructions EN" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,8 +25,84 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Racailloux</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{174DFED4-74FF-4607-AD2F-8DF24FA35B3E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Racailloux:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+A2 = «-», A1 = «-», A0 = "–" =&gt; (0x20)
+A2 = «-», A1 = «-», A0 = "+" =&gt; (0x21)
+A2 = «-», A1 = «+», A0 = "–" =&gt; (0x22)
+A2 = «-», A1 = «+», A0 = "+" =&gt; (0x23)
+A2 = «+», A1 = «-», A0 = "–" =&gt; (x024)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Racailloux</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{A7B875ED-522C-45F3-A9AE-282D46C2FD58}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Racailloux:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+A2 = «-», A1 = «-», A0 = "–" =&gt; (0x20)
+A2 = «-», A1 = «-», A0 = "+" =&gt; (0x21)
+A2 = «-», A1 = «+», A0 = "–" =&gt; (0x22)
+A2 = «-», A1 = «+», A0 = "+" =&gt; (0x23)
+A2 = «+», A1 = «-», A0 = "–" =&gt; (x024)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>Etape</t>
   </si>
@@ -34,9 +110,6 @@
     <t>Instructions</t>
   </si>
   <si>
-    <t>Imprimer le fond, le contours, la façade, 1 cale pour arduino et 5 cales pour PCF8574</t>
-  </si>
-  <si>
     <t>Assembler le boitier</t>
   </si>
   <si>
@@ -52,9 +125,6 @@
     <t>Régler les adresses des 5 cartes PCF8574 de 0x20 à 0x24</t>
   </si>
   <si>
-    <t>Coller et découper l'étiquette sur la façade</t>
-  </si>
-  <si>
     <t>Replier et renforcer les bords de l'étiquette</t>
   </si>
   <si>
@@ -76,9 +146,6 @@
     <t>Aligner les trous des 4 vis de la façade pour coller l'étiquette sur celle-ci.</t>
   </si>
   <si>
-    <t>Replier les bords de l'étiquette sur le dos de la façace et renforcer avec un scotch assez fort (scotch d'électricien trop déformable, mais suffisant)</t>
-  </si>
-  <si>
     <t>Souder les lignes de masse (noir) et les lignes de PWM (rouge ou blanc) sur le dos de la façade.</t>
   </si>
   <si>
@@ -106,9 +173,6 @@
     <t>Fermer le boitier</t>
   </si>
   <si>
-    <t>Installer la façade à l'aide de 4 vis M4</t>
-  </si>
-  <si>
     <t>Adress the PCF8574 boards</t>
   </si>
   <si>
@@ -133,9 +197,6 @@
     <t>Solder the controls</t>
   </si>
   <si>
-    <t>Stick the sticker and cut the borders</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fold and reinforce the edges of the sticker </t>
   </si>
   <si>
@@ -145,24 +206,12 @@
     <t>Solder the potentiometer for PWM analog</t>
   </si>
   <si>
-    <t>Screw the base with the surround using 4x M4 screws.</t>
-  </si>
-  <si>
-    <t>Visser le fond avec le contour à l'aide de 4 vis M4.</t>
-  </si>
-  <si>
     <t>Passer une bombe de vernis (brillant ou mat) sur l'étiquette, en veillant à ne pas la toucher avec les doigts, ni faite de dépôt de vernis.</t>
   </si>
   <si>
     <t>Set the addresses of the 5 PCF8574 cards from 0x20 to 0x24</t>
   </si>
   <si>
-    <t>Installer les cartes 5 cartes PCF8574 et viser leurs cales (vis M3) (redresser les pins de la première carte). Installer la carte arduino micro et visser sa cale (vis M3)</t>
-  </si>
-  <si>
-    <t>Install the 5 PCF8574 boards and screw their wedges (M3 screws) (Fold the pins of the first board). Install the arduino micro card and screw its wedge (M3 screw)</t>
-  </si>
-  <si>
     <t>Apply a spray of varnish (gloss or mat) on the sticker, taking care not to touch it with your fingers, or make varnish deposit.</t>
   </si>
   <si>
@@ -181,9 +230,6 @@
     <t>Connect the cables to the boards following the order of the electrical diagram.</t>
   </si>
   <si>
-    <t>Print the base, the surround, the front, 1 wedge for arduino and 5 wedges for PCF8574</t>
-  </si>
-  <si>
     <t>Solder the ground lines (black) and the PWM lines (red or white) on the back of the front panel.</t>
   </si>
   <si>
@@ -193,26 +239,81 @@
     <t>Fold the edges of the sticker on the back of the front panel and reinforce them with a fairly strong tape (electrician's tape too deformable, but sufficient)</t>
   </si>
   <si>
-    <t>Install the front panel using 4x M4 screws.</t>
-  </si>
-  <si>
     <t>Connect the arduino using a micro USB cable to your PC. Install the development environment and inject the 'ControlPanel.ino' program.</t>
   </si>
   <si>
     <t>Connecter l'arduino à l'aide d'un câble micro USB à votre PC. Installer l'environnement de développement et injecter le programme 'ControlPanel.ino'.</t>
+  </si>
+  <si>
+    <t>Imprimer le fond, le contours, la façade, 1 cale pour le codeur et 5 cales pour PCF8574</t>
+  </si>
+  <si>
+    <t>Print the base, the surround, the front, 1 wedge for encoder and 5 wedges for PCF8574</t>
+  </si>
+  <si>
+    <t>Visser le fond avec le contour à l'aide de 4 vis M3x12.</t>
+  </si>
+  <si>
+    <t>Screw the base with the surround using 4x M3x12 screws.</t>
+  </si>
+  <si>
+    <t>Encollez les cartes</t>
+  </si>
+  <si>
+    <t>A la colle à chaud, bloquez les cartes arduino et PCF8574 afin d'éviter qu'elles bougent et ne fassent de bruit.</t>
+  </si>
+  <si>
+    <t>Englue the boards</t>
+  </si>
+  <si>
+    <t>With hot glue, lock the boards arduino &amp; PCF8574 to avoid movements and noises.</t>
+  </si>
+  <si>
+    <t>Découper et coller l'étiquette sur la façade</t>
+  </si>
+  <si>
+    <t>Cut the borders &amp; stick the sticker</t>
+  </si>
+  <si>
+    <t>Replier les bords de l'étiquette sur le dos de la façace et renforcer avec un scotch assez fort (scotch d'électricien déformable, mais suffisant)</t>
+  </si>
+  <si>
+    <t>Installer la façade à l'aide de 4 vis M3x12</t>
+  </si>
+  <si>
+    <t>Installer les cartes 5 cartes PCF8574 et viser leurs cales (vis M3x8) (redresser les pins de la première carte). Installer la carte arduino micro.</t>
+  </si>
+  <si>
+    <t>Install the 5 PCF8574 boards and screw their wedges (M3x8 screws) (Fold the pins of the first board). Install the arduino micro card.</t>
+  </si>
+  <si>
+    <t>Install the front panel using 4x M3x12 screws.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -265,8 +366,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{953430FE-CB4C-4D59-8C08-06E7B548018A}" name="Tableau1" displayName="Tableau1" ref="A1:B16" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:B16" xr:uid="{953430FE-CB4C-4D59-8C08-06E7B548018A}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{953430FE-CB4C-4D59-8C08-06E7B548018A}" name="Tableau1" displayName="Tableau1" ref="A1:B17" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:B17" xr:uid="{953430FE-CB4C-4D59-8C08-06E7B548018A}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
@@ -279,8 +380,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DDB1DEA2-4E24-4ADE-BDA4-ACFC718FA8F1}" name="Tableau13" displayName="Tableau13" ref="A1:B16" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:B16" xr:uid="{DDB1DEA2-4E24-4ADE-BDA4-ACFC718FA8F1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DDB1DEA2-4E24-4ADE-BDA4-ACFC718FA8F1}" name="Tableau13" displayName="Tableau13" ref="A1:B17" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:B17" xr:uid="{DDB1DEA2-4E24-4ADE-BDA4-ACFC718FA8F1}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{244F0A1B-F95F-4CF8-827E-8637358167B1}" name="Etape"/>
     <tableColumn id="2" xr3:uid="{A7A0274F-A53B-4680-A585-A5464EA0467F}" name="Instructions"/>
@@ -551,17 +652,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87DF8F3C-42CA-47D3-B231-1A040D53C6E4}">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87DF8F3C-42CA-47D3-B231-1A040D53C6E4}">
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.7109375" customWidth="1"/>
-    <col min="2" max="2" width="163" customWidth="1"/>
+    <col min="2" max="2" width="177" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" hidden="1"/>
   </cols>
@@ -576,138 +677,150 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="17" x14ac:dyDescent="0.25"/>
+    <row r="18" x14ac:dyDescent="0.25"/>
+    <row r="19" x14ac:dyDescent="0.25"/>
+    <row r="20" x14ac:dyDescent="0.25"/>
+    <row r="21" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.7109375" customWidth="1"/>
-    <col min="2" max="2" width="163" customWidth="1"/>
+    <col min="2" max="2" width="176.85546875" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" hidden="1"/>
   </cols>
@@ -722,122 +835,133 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="17" x14ac:dyDescent="0.25"/>
+    <row r="18" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Instructions listing.xlsx
+++ b/Instructions listing.xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Commun\Informatique\Projets\Control Panel BO\Dépôt GIT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\favier\Nextcloud\Informatique\Projets\Control Panel BO\Dépôt GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2175C3DD-40AF-455B-AD8F-FE099B04C7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59208418-5E4B-41D7-B6A7-5D58F8E6AF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions FR" sheetId="2" r:id="rId1"/>
     <sheet name="Instructions EN" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -113,9 +122,6 @@
     <t>Assembler le boitier</t>
   </si>
   <si>
-    <t>Impression 3D du boitier boitier</t>
-  </si>
-  <si>
     <t>Installer les cartes</t>
   </si>
   <si>
@@ -288,6 +294,9 @@
   </si>
   <si>
     <t>Install the front panel using 4x M3x12 screws.</t>
+  </si>
+  <si>
+    <t>Impression 3D du boitier</t>
   </si>
 </sst>
 </file>
@@ -655,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87DF8F3C-42CA-47D3-B231-1A040D53C6E4}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -677,26 +686,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -704,95 +713,95 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
         <v>51</v>
-      </c>
-      <c r="B6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" x14ac:dyDescent="0.25"/>
@@ -813,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -835,122 +844,122 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
         <v>53</v>
-      </c>
-      <c r="B6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" x14ac:dyDescent="0.25"/>
